--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -468,18 +468,18 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve">Hubert 6 Door Kitchen Display Cabinet </v>
+        <v>Alexandra Solid Wood Bookshelf in American Walnut</v>
       </c>
       <c r="B2" t="str">
-        <v>₹16,800</v>
+        <v>₹32,799</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">Murano Solid Wood Bookshelf/Display Unit </v>
+        <v>Elliot Engineered Wood Bookshelf in Classic Walnut</v>
       </c>
       <c r="B3" t="str">
-        <v>₹27,429</v>
+        <v>₹14,999</v>
       </c>
     </row>
   </sheetData>
